--- a/Data Files/Input Validation/15. taxpayerid/Auto_TaxPayerID_C2.xlsx
+++ b/Data Files/Input Validation/15. taxpayerid/Auto_TaxPayerID_C2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0FF42AC-DCF5-461C-8AF4-75D73588FA08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10507CFA-5017-426C-968A-8F7D0E4208F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="732" yWindow="732" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -255,7 +255,7 @@
     <t>AS9</t>
   </si>
   <si>
-    <t>2023-09-16</t>
+    <t>2023-10-01</t>
   </si>
 </sst>
 </file>

--- a/Data Files/Input Validation/15. taxpayerid/Auto_TaxPayerID_C2.xlsx
+++ b/Data Files/Input Validation/15. taxpayerid/Auto_TaxPayerID_C2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\test gestamp\Data Files\Input Validation\15. taxpayerid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10507CFA-5017-426C-968A-8F7D0E4208F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19B714E7-03CC-4A89-B633-23CA9081E4B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="732" yWindow="732" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="76">
   <si>
     <t>taxPayerId</t>
   </si>
@@ -181,9 +181,6 @@
   </si>
   <si>
     <t>51g6-wa63</t>
-  </si>
-  <si>
-    <t>2023-08-22</t>
   </si>
   <si>
     <t>2023-12-31</t>
@@ -622,7 +619,7 @@
   <dimension ref="A1:BD2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -832,7 +829,7 @@
         <v>48</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
@@ -848,52 +845,52 @@
         <v>52</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>49</v>
       </c>
       <c r="O2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="P2" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="T2" s="2" t="s">
         <v>49</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="W2" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="X2" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="Y2" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
@@ -901,31 +898,31 @@
       <c r="AC2" s="2"/>
       <c r="AD2" s="2"/>
       <c r="AE2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF2" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="AF2" s="2" t="s">
+      <c r="AG2" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="AG2" s="2" t="s">
+      <c r="AH2" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="AH2" s="2" t="s">
+      <c r="AI2" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="AI2" s="2" t="s">
+      <c r="AJ2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK2" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="AJ2" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AK2" s="2" t="s">
+      <c r="AL2" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="AL2" s="2" t="s">
+      <c r="AM2" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="AM2" s="2" t="s">
-        <v>72</v>
       </c>
       <c r="AN2" s="2"/>
       <c r="AP2" s="2"/>
@@ -934,16 +931,16 @@
         <v>49</v>
       </c>
       <c r="AS2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AT2" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="AT2" s="2" t="s">
+      <c r="AU2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV2" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="AU2" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AV2" s="2" t="s">
-        <v>75</v>
       </c>
       <c r="AW2" s="2"/>
       <c r="AX2" s="2"/>

--- a/Data Files/Input Validation/15. taxpayerid/Auto_TaxPayerID_C2.xlsx
+++ b/Data Files/Input Validation/15. taxpayerid/Auto_TaxPayerID_C2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\test gestamp\Data Files\Input Validation\15. taxpayerid\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19B714E7-03CC-4A89-B633-23CA9081E4B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAA8CB3D-E068-4C26-A87E-4EA9E10211FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="732" yWindow="732" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -252,7 +252,7 @@
     <t>AS9</t>
   </si>
   <si>
-    <t>2023-10-01</t>
+    <t>2023-10-16</t>
   </si>
 </sst>
 </file>

--- a/Data Files/Input Validation/15. taxpayerid/Auto_TaxPayerID_C2.xlsx
+++ b/Data Files/Input Validation/15. taxpayerid/Auto_TaxPayerID_C2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\test gestamp\Data Files\Input Validation\15. taxpayerid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAA8CB3D-E068-4C26-A87E-4EA9E10211FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72EA52E6-2186-4D33-BC3F-CC176AF75B14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="77">
   <si>
     <t>taxPayerId</t>
   </si>
@@ -253,6 +253,9 @@
   </si>
   <si>
     <t>2023-10-16</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -618,8 +621,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BD2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="AN1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AR2" sqref="AR2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -925,11 +928,11 @@
         <v>71</v>
       </c>
       <c r="AN2" s="2"/>
-      <c r="AP2" s="2"/>
+      <c r="AP2" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="AQ2" s="2"/>
-      <c r="AR2" s="3" t="s">
-        <v>49</v>
-      </c>
+      <c r="AR2" s="3"/>
       <c r="AS2" s="2" t="s">
         <v>72</v>
       </c>

--- a/Data Files/Input Validation/15. taxpayerid/Auto_TaxPayerID_C2.xlsx
+++ b/Data Files/Input Validation/15. taxpayerid/Auto_TaxPayerID_C2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\test gestamp\Data Files\Input Validation\15. taxpayerid\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72EA52E6-2186-4D33-BC3F-CC176AF75B14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CCECA0D-7776-4F5A-809E-5BA8C8EEB379}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1464" yWindow="1464" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -252,10 +252,10 @@
     <t>AS9</t>
   </si>
   <si>
-    <t>2023-10-16</t>
-  </si>
-  <si>
     <t/>
+  </si>
+  <si>
+    <t>2023-11-01</t>
   </si>
 </sst>
 </file>
@@ -832,7 +832,7 @@
         <v>48</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
@@ -929,7 +929,7 @@
       </c>
       <c r="AN2" s="2"/>
       <c r="AP2" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AQ2" s="2"/>
       <c r="AR2" s="3"/>

--- a/Data Files/Input Validation/15. taxpayerid/Auto_TaxPayerID_C2.xlsx
+++ b/Data Files/Input Validation/15. taxpayerid/Auto_TaxPayerID_C2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CCECA0D-7776-4F5A-809E-5BA8C8EEB379}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA628718-D435-4F9D-822F-B5D824682526}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1464" yWindow="1464" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2835" yWindow="2010" windowWidth="11925" windowHeight="12675" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -255,7 +255,7 @@
     <t/>
   </si>
   <si>
-    <t>2023-11-01</t>
+    <t>2023-11-16</t>
   </si>
 </sst>
 </file>
@@ -625,58 +625,57 @@
       <selection activeCell="AR2" sqref="AR2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.44140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.88671875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" style="1" customWidth="1"/>
     <col min="7" max="7" width="12" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.33203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.88671875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13.21875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="7.5546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="7.5703125" style="1" customWidth="1"/>
     <col min="12" max="12" width="11" style="1" customWidth="1"/>
-    <col min="13" max="13" width="10.44140625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="8.77734375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="18.6640625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="19.109375" style="1" customWidth="1"/>
-    <col min="17" max="17" width="14.44140625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="20.6640625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="20.44140625" style="1" customWidth="1"/>
-    <col min="20" max="20" width="20.109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="10.42578125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="8.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="18.7109375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="19.140625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="20.7109375" style="1" customWidth="1"/>
+    <col min="19" max="19" width="20.42578125" style="1" customWidth="1"/>
+    <col min="20" max="20" width="20.140625" style="1" customWidth="1"/>
     <col min="21" max="21" width="22" style="1" customWidth="1"/>
-    <col min="22" max="22" width="12.109375" style="1" customWidth="1"/>
-    <col min="23" max="23" width="7.44140625" style="1" customWidth="1"/>
-    <col min="24" max="24" width="6.88671875" style="1" customWidth="1"/>
-    <col min="25" max="25" width="11.44140625" style="1" customWidth="1"/>
-    <col min="26" max="26" width="13.88671875" style="1" customWidth="1"/>
-    <col min="27" max="27" width="4.5546875" style="1" customWidth="1"/>
-    <col min="28" max="28" width="8.109375" style="1" customWidth="1"/>
-    <col min="29" max="29" width="12.33203125" style="1" customWidth="1"/>
-    <col min="30" max="30" width="10.6640625" style="1" customWidth="1"/>
-    <col min="31" max="31" width="13.44140625" style="1" customWidth="1"/>
-    <col min="32" max="32" width="14.109375" style="1" customWidth="1"/>
-    <col min="33" max="33" width="11.6640625" style="1" customWidth="1"/>
-    <col min="34" max="34" width="8.6640625" style="1" customWidth="1"/>
-    <col min="35" max="35" width="8.77734375" style="1" customWidth="1"/>
+    <col min="22" max="22" width="12.140625" style="1" customWidth="1"/>
+    <col min="23" max="23" width="7.42578125" style="1" customWidth="1"/>
+    <col min="24" max="24" width="6.85546875" style="1" customWidth="1"/>
+    <col min="25" max="25" width="11.42578125" style="1" customWidth="1"/>
+    <col min="26" max="26" width="13.85546875" style="1" customWidth="1"/>
+    <col min="27" max="27" width="4.5703125" style="1" customWidth="1"/>
+    <col min="28" max="28" width="8.140625" style="1" customWidth="1"/>
+    <col min="29" max="29" width="12.28515625" style="1" customWidth="1"/>
+    <col min="30" max="30" width="10.7109375" style="1" customWidth="1"/>
+    <col min="31" max="31" width="13.42578125" style="1" customWidth="1"/>
+    <col min="32" max="32" width="14.140625" style="1" customWidth="1"/>
+    <col min="33" max="33" width="11.7109375" style="1" customWidth="1"/>
+    <col min="34" max="35" width="8.7109375" style="1" customWidth="1"/>
     <col min="36" max="39" width="9" style="1" customWidth="1"/>
-    <col min="40" max="40" width="10.109375" style="1" customWidth="1"/>
+    <col min="40" max="40" width="10.140625" style="1" customWidth="1"/>
     <col min="41" max="41" width="10" style="1" customWidth="1"/>
-    <col min="42" max="42" width="12.77734375" style="1" customWidth="1"/>
-    <col min="43" max="43" width="14.44140625" style="1" customWidth="1"/>
-    <col min="44" max="44" width="11.6640625" style="1" customWidth="1"/>
-    <col min="45" max="45" width="17.21875" style="1" customWidth="1"/>
-    <col min="46" max="46" width="18.44140625" style="1" customWidth="1"/>
-    <col min="47" max="47" width="10.21875" style="1" customWidth="1"/>
-    <col min="48" max="48" width="8.77734375" style="1" customWidth="1"/>
-    <col min="49" max="53" width="2.6640625" style="1"/>
-    <col min="57" max="16384" width="2.6640625" style="1"/>
+    <col min="42" max="42" width="12.7109375" style="1" customWidth="1"/>
+    <col min="43" max="43" width="14.42578125" style="1" customWidth="1"/>
+    <col min="44" max="44" width="11.7109375" style="1" customWidth="1"/>
+    <col min="45" max="45" width="17.28515625" style="1" customWidth="1"/>
+    <col min="46" max="46" width="18.42578125" style="1" customWidth="1"/>
+    <col min="47" max="47" width="10.28515625" style="1" customWidth="1"/>
+    <col min="48" max="48" width="8.7109375" style="1" customWidth="1"/>
+    <col min="49" max="53" width="2.7109375" style="1"/>
+    <col min="57" max="16384" width="2.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -827,7 +826,7 @@
       <c r="AZ1" s="2"/>
       <c r="BA1" s="2"/>
     </row>
-    <row r="2" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>48</v>
       </c>

--- a/Data Files/Input Validation/15. taxpayerid/Auto_TaxPayerID_C2.xlsx
+++ b/Data Files/Input Validation/15. taxpayerid/Auto_TaxPayerID_C2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA628718-D435-4F9D-822F-B5D824682526}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78ABDA5A-4800-4F01-AB71-1D19B95A0AD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2835" yWindow="2010" windowWidth="11925" windowHeight="12675" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6210" yWindow="2415" windowWidth="9690" windowHeight="12675" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -255,7 +255,7 @@
     <t/>
   </si>
   <si>
-    <t>2023-11-16</t>
+    <t>2024-01-02</t>
   </si>
 </sst>
 </file>

--- a/Data Files/Input Validation/15. taxpayerid/Auto_TaxPayerID_C2.xlsx
+++ b/Data Files/Input Validation/15. taxpayerid/Auto_TaxPayerID_C2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78ABDA5A-4800-4F01-AB71-1D19B95A0AD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92295136-9ACB-4301-9955-0C955AC47B05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6210" yWindow="2415" windowWidth="9690" windowHeight="12675" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -255,7 +255,7 @@
     <t/>
   </si>
   <si>
-    <t>2024-01-02</t>
+    <t>2024-01-16</t>
   </si>
 </sst>
 </file>
@@ -322,9 +322,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -362,7 +362,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -468,7 +468,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -610,7 +610,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>

--- a/Data Files/Input Validation/15. taxpayerid/Auto_TaxPayerID_C2.xlsx
+++ b/Data Files/Input Validation/15. taxpayerid/Auto_TaxPayerID_C2.xlsx
@@ -1,31 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AA543BD-6DC9-4499-AD08-918A327D1F4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE433F85-02EE-49FF-9DBD-985BD24F94A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="12915" windowHeight="12615" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913" calcMode="manual"/>
   <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="76">
   <si>
     <t>taxPayerId</t>
   </si>
@@ -171,9 +171,6 @@
     <t>formType</t>
   </si>
   <si>
-    <t>3715745436458</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -243,6 +240,9 @@
     <t>10</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>0105556078229</t>
   </si>
   <si>
@@ -252,10 +252,7 @@
     <t>AS9</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>2024-02-16</t>
+    <t>2024-04-16</t>
   </si>
 </sst>
 </file>
@@ -265,9 +262,10 @@
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <charset val="1"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
@@ -299,11 +297,11 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -338,7 +336,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -350,7 +348,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -397,23 +395,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -449,23 +430,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -619,339 +583,279 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:BD2"/>
+  <dimension ref="A1:AV2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AN1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AR2" sqref="AR2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13.28515625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="7.5703125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="11" style="1" customWidth="1"/>
-    <col min="13" max="13" width="10.42578125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="8.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="18.7109375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="19.140625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="20.7109375" style="1" customWidth="1"/>
-    <col min="19" max="19" width="20.42578125" style="1" customWidth="1"/>
-    <col min="20" max="20" width="20.140625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="22" style="1" customWidth="1"/>
-    <col min="22" max="22" width="12.140625" style="1" customWidth="1"/>
-    <col min="23" max="23" width="7.42578125" style="1" customWidth="1"/>
-    <col min="24" max="24" width="6.85546875" style="1" customWidth="1"/>
-    <col min="25" max="25" width="11.42578125" style="1" customWidth="1"/>
-    <col min="26" max="26" width="13.85546875" style="1" customWidth="1"/>
-    <col min="27" max="27" width="4.5703125" style="1" customWidth="1"/>
-    <col min="28" max="28" width="8.140625" style="1" customWidth="1"/>
-    <col min="29" max="29" width="12.28515625" style="1" customWidth="1"/>
-    <col min="30" max="30" width="10.7109375" style="1" customWidth="1"/>
-    <col min="31" max="31" width="13.42578125" style="1" customWidth="1"/>
-    <col min="32" max="32" width="14.140625" style="1" customWidth="1"/>
-    <col min="33" max="33" width="11.7109375" style="1" customWidth="1"/>
-    <col min="34" max="35" width="8.7109375" style="1" customWidth="1"/>
-    <col min="36" max="39" width="9" style="1" customWidth="1"/>
-    <col min="40" max="40" width="10.140625" style="1" customWidth="1"/>
-    <col min="41" max="41" width="10" style="1" customWidth="1"/>
-    <col min="42" max="42" width="12.7109375" style="1" customWidth="1"/>
-    <col min="43" max="43" width="14.42578125" style="1" customWidth="1"/>
-    <col min="44" max="44" width="11.7109375" style="1" customWidth="1"/>
-    <col min="45" max="45" width="17.28515625" style="1" customWidth="1"/>
-    <col min="46" max="46" width="18.42578125" style="1" customWidth="1"/>
-    <col min="47" max="47" width="10.28515625" style="1" customWidth="1"/>
-    <col min="48" max="48" width="8.7109375" style="1" customWidth="1"/>
-    <col min="49" max="53" width="2.7109375" style="1"/>
-    <col min="57" max="16384" width="2.7109375" style="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Y1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="Z1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AA1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AB1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AC1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AD1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AE1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AF1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AG1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AH1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AI1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AK1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AL1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AM1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AN1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="2" t="s">
+      <c r="AO1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="2" t="s">
+      <c r="AP1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="2" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="2" t="s">
+      <c r="AR1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="2" t="s">
+      <c r="AS1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="2" t="s">
+      <c r="AT1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="2" t="s">
+      <c r="AU1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="2" t="s">
+      <c r="AV1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="2"/>
-      <c r="AX1" s="2"/>
-      <c r="AY1" s="2"/>
-      <c r="AZ1" s="2"/>
-      <c r="BA1" s="2"/>
     </row>
-    <row r="2" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="Q2" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="R2" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="S2" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="T2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="V2" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="T2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="U2" s="2" t="s">
+      <c r="W2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
+      <c r="AC2" s="1"/>
+      <c r="AD2" s="1"/>
+      <c r="AE2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="V2" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="Z2" s="2"/>
-      <c r="AA2" s="2"/>
-      <c r="AB2" s="2"/>
-      <c r="AC2" s="2"/>
-      <c r="AD2" s="2"/>
-      <c r="AE2" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="AF2" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="AG2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AH2" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="AI2" s="2" t="s">
+      <c r="AK2" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AJ2" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AK2" s="2" t="s">
+      <c r="AL2" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="AL2" s="2" t="s">
+      <c r="AM2" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AM2" s="2" t="s">
+      <c r="AN2" s="1"/>
+      <c r="AO2" s="3"/>
+      <c r="AP2" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="AN2" s="2"/>
-      <c r="AP2" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="AQ2" s="2"/>
-      <c r="AR2" s="3"/>
-      <c r="AS2" s="2" t="s">
+      <c r="AQ2" s="1"/>
+      <c r="AR2" s="2"/>
+      <c r="AS2" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="AT2" s="2" t="s">
+      <c r="AT2" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="AU2" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AV2" s="2" t="s">
+      <c r="AU2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AV2" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="AW2" s="2"/>
-      <c r="AX2" s="2"/>
-      <c r="AY2" s="2"/>
-      <c r="AZ2" s="2"/>
-      <c r="BA2" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Data Files/Input Validation/15. taxpayerid/Auto_TaxPayerID_C2.xlsx
+++ b/Data Files/Input Validation/15. taxpayerid/Auto_TaxPayerID_C2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE433F85-02EE-49FF-9DBD-985BD24F94A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7A4B414-B5D9-45B3-BA49-C6B075DC3DE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="12915" windowHeight="12615" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="12915" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -252,7 +252,7 @@
     <t>AS9</t>
   </si>
   <si>
-    <t>2024-04-16</t>
+    <t>2024-07-01</t>
   </si>
 </sst>
 </file>

--- a/Data Files/Input Validation/15. taxpayerid/Auto_TaxPayerID_C2.xlsx
+++ b/Data Files/Input Validation/15. taxpayerid/Auto_TaxPayerID_C2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7A4B414-B5D9-45B3-BA49-C6B075DC3DE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28E4C945-9C2A-462B-A4C0-AA3C84B68F2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="12915" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="2940" windowWidth="7305" windowHeight="13260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -252,7 +252,7 @@
     <t>AS9</t>
   </si>
   <si>
-    <t>2024-07-01</t>
+    <t>2024-08-16</t>
   </si>
 </sst>
 </file>
